--- a/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09555419962525</v>
+        <v>15.22851171689977</v>
       </c>
       <c r="C2">
-        <v>15.43018995796162</v>
+        <v>8.687616626870415</v>
       </c>
       <c r="D2">
-        <v>4.263832684478286</v>
+        <v>5.046895497392046</v>
       </c>
       <c r="E2">
-        <v>10.54509688183971</v>
+        <v>13.00816650221426</v>
       </c>
       <c r="F2">
-        <v>36.8043815689836</v>
+        <v>33.82376880685038</v>
       </c>
       <c r="G2">
-        <v>2.06304043373746</v>
+        <v>2.106426066393697</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.3920879348528</v>
+        <v>13.3297669121845</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.49442621719443</v>
+        <v>15.39114981716876</v>
       </c>
       <c r="N2">
-        <v>13.76723226490337</v>
+        <v>15.90858207000777</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.49465067616336</v>
+        <v>14.18797381762664</v>
       </c>
       <c r="C3">
-        <v>14.31501774543401</v>
+        <v>8.071884431035857</v>
       </c>
       <c r="D3">
-        <v>4.331589930507058</v>
+        <v>5.114757901254033</v>
       </c>
       <c r="E3">
-        <v>9.915608836894538</v>
+        <v>12.11234353051248</v>
       </c>
       <c r="F3">
-        <v>34.96100887255074</v>
+        <v>32.61990452135717</v>
       </c>
       <c r="G3">
-        <v>2.074671290833395</v>
+        <v>2.11534629531484</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.99886803076543</v>
+        <v>12.39023150646462</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.17371613270149</v>
+        <v>14.31482723005872</v>
       </c>
       <c r="N3">
-        <v>13.89325720498401</v>
+        <v>15.96738654723888</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46409713000218</v>
+        <v>13.57920906581804</v>
       </c>
       <c r="C4">
-        <v>13.59724772297591</v>
+        <v>7.674521770257978</v>
       </c>
       <c r="D4">
-        <v>4.375175055291966</v>
+        <v>5.156335859056874</v>
       </c>
       <c r="E4">
-        <v>9.521967921781346</v>
+        <v>11.592687425123</v>
       </c>
       <c r="F4">
-        <v>33.82301372759299</v>
+        <v>31.88641828128219</v>
       </c>
       <c r="G4">
-        <v>2.08195198762437</v>
+        <v>2.120957361757948</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.10145538698994</v>
+        <v>11.78323173181531</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.32418478056357</v>
+        <v>13.67283423658706</v>
       </c>
       <c r="N4">
-        <v>13.97660429501272</v>
+        <v>16.00908501070532</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.03196336618016</v>
+        <v>13.32577840691556</v>
       </c>
       <c r="C5">
-        <v>13.296263145393</v>
+        <v>7.507666733779768</v>
       </c>
       <c r="D5">
-        <v>4.393404549472893</v>
+        <v>5.173278154429193</v>
       </c>
       <c r="E5">
-        <v>9.359845190774099</v>
+        <v>11.37709268072151</v>
       </c>
       <c r="F5">
-        <v>33.35807767986363</v>
+        <v>31.58921177040029</v>
       </c>
       <c r="G5">
-        <v>2.084957305759731</v>
+        <v>2.123279432469243</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.72499044736375</v>
+        <v>11.52819832780913</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.96807756350044</v>
+        <v>13.45675224902174</v>
       </c>
       <c r="N5">
-        <v>14.01198824600429</v>
+        <v>16.02742311801536</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.95946692339899</v>
+        <v>13.2833782702787</v>
       </c>
       <c r="C6">
-        <v>13.24576732846524</v>
+        <v>7.479660961993223</v>
       </c>
       <c r="D6">
-        <v>4.396459042032317</v>
+        <v>5.176091945208821</v>
       </c>
       <c r="E6">
-        <v>9.332824777265172</v>
+        <v>11.34106609616713</v>
       </c>
       <c r="F6">
-        <v>33.28081570912187</v>
+        <v>31.53997150392416</v>
       </c>
       <c r="G6">
-        <v>2.085458746666539</v>
+        <v>2.123667206414501</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.66182290826525</v>
+        <v>11.48538372209165</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.90834154816982</v>
+        <v>13.42071245913993</v>
       </c>
       <c r="N6">
-        <v>14.01794725343754</v>
+        <v>16.03054773439865</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.45831877648157</v>
+        <v>13.57581266286673</v>
       </c>
       <c r="C7">
-        <v>13.59322313013981</v>
+        <v>7.672291546453026</v>
       </c>
       <c r="D7">
-        <v>4.375419044790519</v>
+        <v>5.156564325754828</v>
       </c>
       <c r="E7">
-        <v>9.519788263627788</v>
+        <v>11.58979517049526</v>
       </c>
       <c r="F7">
-        <v>33.81674772501223</v>
+        <v>31.88240281681973</v>
       </c>
       <c r="G7">
-        <v>2.081992358802391</v>
+        <v>2.120988531899251</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.09642208959594</v>
+        <v>11.77982347368982</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.31942260780025</v>
+        <v>13.66993093457267</v>
       </c>
       <c r="N7">
-        <v>13.97707584891153</v>
+        <v>16.00932695313306</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.55330837066532</v>
+        <v>14.86163976005645</v>
       </c>
       <c r="C8">
-        <v>15.05242745475037</v>
+        <v>8.479272660683677</v>
       </c>
       <c r="D8">
-        <v>4.286764085950347</v>
+        <v>5.070326577065185</v>
       </c>
       <c r="E8">
-        <v>10.32956565528202</v>
+        <v>12.68685204182779</v>
       </c>
       <c r="F8">
-        <v>36.17024301476572</v>
+        <v>33.40764354370068</v>
       </c>
       <c r="G8">
-        <v>2.067023950925785</v>
+        <v>2.109475082529529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.92028647414638</v>
+        <v>13.01200385657636</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.04692868959599</v>
+        <v>15.02686796713361</v>
       </c>
       <c r="N8">
-        <v>13.80939523883526</v>
+        <v>15.92765928702103</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.29458687771658</v>
+        <v>17.38324343133691</v>
       </c>
       <c r="C9">
-        <v>17.66042554688312</v>
+        <v>9.912144770959246</v>
       </c>
       <c r="D9">
-        <v>4.130340628317422</v>
+        <v>4.899437181509988</v>
       </c>
       <c r="E9">
-        <v>11.98718510467916</v>
+        <v>14.9040869626699</v>
       </c>
       <c r="F9">
-        <v>40.72711220366762</v>
+        <v>36.43414170039765</v>
       </c>
       <c r="G9">
-        <v>2.038607591187215</v>
+        <v>2.087871182815658</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.17412390598679</v>
+        <v>15.19418393779951</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.13853182656847</v>
+        <v>17.5338646400003</v>
       </c>
       <c r="N9">
-        <v>13.53213716302258</v>
+        <v>15.81485912391949</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.8364761610066</v>
+        <v>19.08127214086126</v>
       </c>
       <c r="C10">
-        <v>19.43553597919948</v>
+        <v>10.87895414980142</v>
       </c>
       <c r="D10">
-        <v>4.029079724677957</v>
+        <v>4.771162114928862</v>
       </c>
       <c r="E10">
-        <v>13.2454606427811</v>
+        <v>16.4101601942853</v>
       </c>
       <c r="F10">
-        <v>44.03630695066219</v>
+        <v>38.66989083587362</v>
       </c>
       <c r="G10">
-        <v>2.01803420279381</v>
+        <v>2.07245561344327</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.38380437865934</v>
+        <v>16.6619718841339</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.2455507983096</v>
+        <v>19.2274322775101</v>
       </c>
       <c r="N10">
-        <v>13.36673776550351</v>
+        <v>15.76540241946589</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.95235537521668</v>
+        <v>19.82199876015246</v>
       </c>
       <c r="C11">
-        <v>20.21594900785028</v>
+        <v>11.30141414220373</v>
       </c>
       <c r="D11">
-        <v>3.986903167366279</v>
+        <v>4.711802958009378</v>
       </c>
       <c r="E11">
-        <v>13.80213080882032</v>
+        <v>17.07089653012937</v>
       </c>
       <c r="F11">
-        <v>45.53552420802723</v>
+        <v>39.68874471623338</v>
       </c>
       <c r="G11">
-        <v>2.008670679635794</v>
+        <v>2.065507580251611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.35381097561513</v>
+        <v>17.30205061585153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.17254448705256</v>
+        <v>19.96791384965724</v>
       </c>
       <c r="N11">
-        <v>13.30168296523742</v>
+        <v>15.75129962990546</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.36952353231562</v>
+        <v>20.09810183092012</v>
       </c>
       <c r="C12">
-        <v>20.50791146244853</v>
+        <v>11.45901275511494</v>
       </c>
       <c r="D12">
-        <v>3.971592081591529</v>
+        <v>4.68914179535772</v>
       </c>
       <c r="E12">
-        <v>14.01095160713886</v>
+        <v>17.31780616859627</v>
       </c>
       <c r="F12">
-        <v>46.10273487814786</v>
+        <v>40.07482242712486</v>
       </c>
       <c r="G12">
-        <v>2.005117401400459</v>
+        <v>2.062882618290654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.71645630465164</v>
+        <v>17.54061920211133</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.51944468582465</v>
+        <v>20.24421764245174</v>
       </c>
       <c r="N12">
-        <v>13.27870237306833</v>
+        <v>15.74727375625729</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.27991125966097</v>
+        <v>20.03883066829761</v>
       </c>
       <c r="C13">
-        <v>20.44518477284683</v>
+        <v>11.42517484484927</v>
       </c>
       <c r="D13">
-        <v>3.974858371434831</v>
+        <v>4.694031086068057</v>
       </c>
       <c r="E13">
-        <v>13.96606131318672</v>
+        <v>17.26477280185632</v>
       </c>
       <c r="F13">
-        <v>45.98059083584918</v>
+        <v>39.9916613815903</v>
       </c>
       <c r="G13">
-        <v>2.005883118221968</v>
+        <v>2.063447733713425</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.6385553631622</v>
+        <v>17.48940621287122</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.44491035514859</v>
+        <v>20.18488957863537</v>
       </c>
       <c r="N13">
-        <v>13.28357473013498</v>
+        <v>15.74808050387725</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.98678144753809</v>
+        <v>19.84480096854523</v>
       </c>
       <c r="C14">
-        <v>20.24003826532339</v>
+        <v>11.31442682016167</v>
       </c>
       <c r="D14">
-        <v>3.985629620242021</v>
+        <v>4.709942516542432</v>
       </c>
       <c r="E14">
-        <v>13.81934848953846</v>
+        <v>17.09127472554967</v>
       </c>
       <c r="F14">
-        <v>45.58219645298956</v>
+        <v>39.72050210549187</v>
       </c>
       <c r="G14">
-        <v>2.008378542942397</v>
+        <v>2.065291520153804</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.38373732514251</v>
+        <v>17.32175330847003</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.2011645097099</v>
+        <v>19.99072646774288</v>
       </c>
       <c r="N14">
-        <v>13.29975798840312</v>
+        <v>15.75094141796792</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80654252399212</v>
+        <v>19.72538520225627</v>
       </c>
       <c r="C15">
-        <v>20.11392678733374</v>
+        <v>11.24628445525934</v>
       </c>
       <c r="D15">
-        <v>3.992316702666779</v>
+        <v>4.719663662492803</v>
       </c>
       <c r="E15">
-        <v>13.72923417810855</v>
+        <v>16.98457940888018</v>
       </c>
       <c r="F15">
-        <v>45.33811591192477</v>
+        <v>39.55444425054124</v>
       </c>
       <c r="G15">
-        <v>2.009905862592131</v>
+        <v>2.066421587432762</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.2270574145969</v>
+        <v>17.21856911267495</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.05133777411092</v>
+        <v>19.87126834994923</v>
       </c>
       <c r="N15">
-        <v>13.3098922839428</v>
+        <v>15.75286838239662</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.76277198082108</v>
+        <v>19.03223955002817</v>
       </c>
       <c r="C16">
-        <v>19.3840163772727</v>
+        <v>10.85100604544736</v>
       </c>
       <c r="D16">
-        <v>4.031922436043909</v>
+        <v>4.775017937778989</v>
       </c>
       <c r="E16">
-        <v>13.20878775793175</v>
+        <v>16.36650624478374</v>
       </c>
       <c r="F16">
-        <v>43.93823399018591</v>
+        <v>38.60334111596504</v>
       </c>
       <c r="G16">
-        <v>2.018645475906508</v>
+        <v>2.072910719577311</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.31973581191616</v>
+        <v>16.61959844274754</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.1843684393497</v>
+        <v>19.17845470513269</v>
       </c>
       <c r="N16">
-        <v>13.37120973403558</v>
+        <v>15.7665019237971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.11237842978583</v>
+        <v>18.59900699398358</v>
       </c>
       <c r="C17">
-        <v>18.92952339759984</v>
+        <v>10.60415209899951</v>
       </c>
       <c r="D17">
-        <v>4.057280132584689</v>
+        <v>4.808692239063818</v>
       </c>
       <c r="E17">
-        <v>12.88567165750871</v>
+        <v>15.98123507620549</v>
       </c>
       <c r="F17">
-        <v>43.07809046156464</v>
+        <v>38.02031087201004</v>
       </c>
       <c r="G17">
-        <v>2.024001207192973</v>
+        <v>2.076905980688292</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.75436873605971</v>
+        <v>16.24518111741827</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.64470870903046</v>
+        <v>18.74590834251894</v>
       </c>
       <c r="N17">
-        <v>13.41156043906147</v>
+        <v>15.77708877762949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.7344543070299</v>
+        <v>18.3468268901041</v>
       </c>
       <c r="C18">
-        <v>18.66553844814778</v>
+        <v>10.46052789257083</v>
       </c>
       <c r="D18">
-        <v>4.072223856844243</v>
+        <v>4.827968639609852</v>
       </c>
       <c r="E18">
-        <v>12.69832442294631</v>
+        <v>15.75732834371361</v>
       </c>
       <c r="F18">
-        <v>42.58274741752901</v>
+        <v>37.68513268050263</v>
       </c>
       <c r="G18">
-        <v>2.027081716335753</v>
+        <v>2.079210238457922</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.42584662124795</v>
+        <v>16.02721572588904</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33131900110853</v>
+        <v>18.49428854157904</v>
       </c>
       <c r="N18">
-        <v>13.4357148636711</v>
+        <v>15.78396120437191</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.60582507424252</v>
+        <v>18.26092365835261</v>
       </c>
       <c r="C19">
-        <v>18.57570642434528</v>
+        <v>10.41161410571029</v>
       </c>
       <c r="D19">
-        <v>4.077342415800722</v>
+        <v>4.834480571310437</v>
       </c>
       <c r="E19">
-        <v>12.63462638463788</v>
+        <v>15.68111479066606</v>
       </c>
       <c r="F19">
-        <v>42.41491907921901</v>
+        <v>37.57167657203871</v>
       </c>
       <c r="G19">
-        <v>2.028124922228191</v>
+        <v>2.079991591954378</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.31403049043589</v>
+        <v>15.95296348883536</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.2246855798125</v>
+        <v>18.40860237964578</v>
       </c>
       <c r="N19">
-        <v>13.44405028421581</v>
+        <v>15.78641950726289</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.18200795540682</v>
+        <v>18.64543428513042</v>
       </c>
       <c r="C20">
-        <v>18.97816894091571</v>
+        <v>10.63059908455813</v>
       </c>
       <c r="D20">
-        <v>4.054542981497647</v>
+        <v>4.805117356193942</v>
       </c>
       <c r="E20">
-        <v>12.92022118150772</v>
+        <v>16.02248537180762</v>
       </c>
       <c r="F20">
-        <v>43.16971528623726</v>
+        <v>38.08235852726025</v>
       </c>
       <c r="G20">
-        <v>2.023431123335709</v>
+        <v>2.076480049323071</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.81489586630077</v>
+        <v>16.28530756043619</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.70246333585451</v>
+        <v>18.79224518659412</v>
       </c>
       <c r="N20">
-        <v>13.40716587785685</v>
+        <v>15.77587999436006</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.0730234058145</v>
+        <v>19.9019100275566</v>
       </c>
       <c r="C21">
-        <v>20.30038857548847</v>
+        <v>11.34701974515782</v>
       </c>
       <c r="D21">
-        <v>3.982447002360549</v>
+        <v>4.705274241965456</v>
       </c>
       <c r="E21">
-        <v>13.86249281557905</v>
+        <v>17.14232300647145</v>
       </c>
       <c r="F21">
-        <v>45.69922456801595</v>
+        <v>39.80014075895755</v>
       </c>
       <c r="G21">
-        <v>2.007645840054394</v>
+        <v>2.064749816769887</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.45870710643461</v>
+        <v>17.37109925062245</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.27286726721466</v>
+        <v>20.04786643892437</v>
       </c>
       <c r="N21">
-        <v>13.29495801280322</v>
+        <v>15.75006450968552</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.2777314835492</v>
+        <v>20.69756886260862</v>
       </c>
       <c r="C22">
-        <v>21.1439584301311</v>
+        <v>11.80144526906827</v>
       </c>
       <c r="D22">
-        <v>3.939241219805281</v>
+        <v>4.63893245863455</v>
       </c>
       <c r="E22">
-        <v>14.46695616466982</v>
+        <v>17.85509967702114</v>
       </c>
       <c r="F22">
-        <v>47.34972870924483</v>
+        <v>40.92437559056707</v>
       </c>
       <c r="G22">
-        <v>1.997281456785247</v>
+        <v>2.057117283853327</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.50600215572331</v>
+        <v>18.05857235295381</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.27535948664494</v>
+        <v>20.84469698942052</v>
       </c>
       <c r="N22">
-        <v>13.23137727709499</v>
+        <v>15.74091307475549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63745228430293</v>
+        <v>20.27518593181319</v>
       </c>
       <c r="C23">
-        <v>20.69548913991526</v>
+        <v>11.56013053435593</v>
       </c>
       <c r="D23">
-        <v>3.96190318368809</v>
+        <v>4.674453779789412</v>
       </c>
       <c r="E23">
-        <v>14.14527735228191</v>
+        <v>17.47634968513877</v>
       </c>
       <c r="F23">
-        <v>46.46889982753937</v>
+        <v>40.32418880463116</v>
       </c>
       <c r="G23">
-        <v>2.002820047026772</v>
+        <v>2.06118896062112</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.94937262277777</v>
+        <v>17.69362620796245</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.74234662373046</v>
+        <v>20.42151740975278</v>
       </c>
       <c r="N23">
-        <v>13.26434807370595</v>
+        <v>15.74505243432543</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.15054095026292</v>
+        <v>18.62445420280447</v>
       </c>
       <c r="C24">
-        <v>18.9561846967438</v>
+        <v>10.61864772044533</v>
       </c>
       <c r="D24">
-        <v>4.055779317204669</v>
+        <v>4.806733817675418</v>
       </c>
       <c r="E24">
-        <v>12.9046062946605</v>
+        <v>16.0038436328296</v>
       </c>
       <c r="F24">
-        <v>43.1282943301314</v>
+        <v>38.05430673894043</v>
       </c>
       <c r="G24">
-        <v>2.023688853297354</v>
+        <v>2.076672589829461</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.78754243419551</v>
+        <v>16.26717484168755</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.67636225418102</v>
+        <v>18.77130548170126</v>
       </c>
       <c r="N24">
-        <v>13.40914969438157</v>
+        <v>15.77642404534106</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.32014261070611</v>
+        <v>16.72879503158903</v>
       </c>
       <c r="C25">
-        <v>16.98072158123227</v>
+        <v>9.540011173869052</v>
       </c>
       <c r="D25">
-        <v>4.170519293766139</v>
+        <v>4.946017026700657</v>
       </c>
       <c r="E25">
-        <v>11.50820007670608</v>
+        <v>14.3265655946275</v>
       </c>
       <c r="F25">
-        <v>39.50142125635834</v>
+        <v>35.61275627119485</v>
       </c>
       <c r="G25">
-        <v>2.04622023703217</v>
+        <v>2.09362469570493</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.32689267512916</v>
+        <v>14.62819210841554</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.33231158706688</v>
+        <v>16.88240720208718</v>
       </c>
       <c r="N25">
-        <v>13.60097691334469</v>
+        <v>15.83986229049235</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.22851171689977</v>
+        <v>12.74003100523752</v>
       </c>
       <c r="C2">
-        <v>8.687616626870415</v>
+        <v>8.141455370569513</v>
       </c>
       <c r="D2">
-        <v>5.046895497392046</v>
+        <v>4.644849565975627</v>
       </c>
       <c r="E2">
-        <v>13.00816650221426</v>
+        <v>15.59658231362668</v>
       </c>
       <c r="F2">
-        <v>33.82376880685038</v>
+        <v>22.08855709005444</v>
       </c>
       <c r="G2">
-        <v>2.106426066393697</v>
+        <v>29.7955132839699</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.784760506314765</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.34274012476325</v>
       </c>
       <c r="K2">
-        <v>13.3297669121845</v>
+        <v>15.53789990166934</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.39114981716876</v>
+        <v>11.74775389861792</v>
       </c>
       <c r="N2">
-        <v>15.90858207000777</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.78133132951408</v>
+      </c>
+      <c r="P2">
+        <v>12.74659568515562</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.18797381762664</v>
+        <v>11.91448330208423</v>
       </c>
       <c r="C3">
-        <v>8.071884431035857</v>
+        <v>7.625508259212871</v>
       </c>
       <c r="D3">
-        <v>5.114757901254033</v>
+        <v>4.548122618339064</v>
       </c>
       <c r="E3">
-        <v>12.11234353051248</v>
+        <v>14.68516086811426</v>
       </c>
       <c r="F3">
-        <v>32.61990452135717</v>
+        <v>21.47670899188466</v>
       </c>
       <c r="G3">
-        <v>2.11534629531484</v>
+        <v>28.88805584971526</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.561919659611381</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.27818128309328</v>
       </c>
       <c r="K3">
-        <v>12.39023150646462</v>
+        <v>15.46175565278837</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.31482723005872</v>
+        <v>11.04435964407423</v>
       </c>
       <c r="N3">
-        <v>15.96738654723888</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.95618130241269</v>
+      </c>
+      <c r="P3">
+        <v>12.90973507308708</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.57920906581804</v>
+        <v>11.37829375780473</v>
       </c>
       <c r="C4">
-        <v>7.674521770257978</v>
+        <v>7.291219018390869</v>
       </c>
       <c r="D4">
-        <v>5.156335859056874</v>
+        <v>4.486714436382346</v>
       </c>
       <c r="E4">
-        <v>11.592687425123</v>
+        <v>14.09625557654412</v>
       </c>
       <c r="F4">
-        <v>31.88641828128219</v>
+        <v>21.10664505526099</v>
       </c>
       <c r="G4">
-        <v>2.120957361757948</v>
+        <v>28.33783901013502</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.708727227586867</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.24335866971467</v>
       </c>
       <c r="K4">
-        <v>11.78323173181531</v>
+        <v>15.42359902789255</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.67283423658706</v>
+        <v>10.58928296911972</v>
       </c>
       <c r="N4">
-        <v>16.00908501070532</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.42511730685517</v>
+      </c>
+      <c r="P4">
+        <v>13.01206546893343</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32577840691556</v>
+        <v>11.15240528047789</v>
       </c>
       <c r="C5">
-        <v>7.507666733779768</v>
+        <v>7.150593774941505</v>
       </c>
       <c r="D5">
-        <v>5.173278154429193</v>
+        <v>4.461197283808511</v>
       </c>
       <c r="E5">
-        <v>11.37709268072151</v>
+        <v>13.84895322980564</v>
       </c>
       <c r="F5">
-        <v>31.58921177040029</v>
+        <v>20.95741402516041</v>
       </c>
       <c r="G5">
-        <v>2.123279432469243</v>
+        <v>28.11561648877666</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.769808774625694</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.23035108938655</v>
       </c>
       <c r="K5">
-        <v>11.52819832780913</v>
+        <v>15.4101463829995</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.45675224902174</v>
+        <v>10.39803356657501</v>
       </c>
       <c r="N5">
-        <v>16.02742311801536</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.20268023060437</v>
+      </c>
+      <c r="P5">
+        <v>13.05432032139439</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.2833782702787</v>
+        <v>11.11445007992014</v>
       </c>
       <c r="C6">
-        <v>7.479660961993223</v>
+        <v>7.126977464474858</v>
       </c>
       <c r="D6">
-        <v>5.176091945208821</v>
+        <v>4.456930857544342</v>
       </c>
       <c r="E6">
-        <v>11.34106609616713</v>
+        <v>13.80744856440757</v>
       </c>
       <c r="F6">
-        <v>31.53997150392416</v>
+        <v>20.93273408897193</v>
       </c>
       <c r="G6">
-        <v>2.123667206414501</v>
+        <v>28.07884436010923</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.780027792869135</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.22826178433233</v>
       </c>
       <c r="K6">
-        <v>11.48538372209165</v>
+        <v>15.40803726511745</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.42071245913993</v>
+        <v>10.36592746185718</v>
       </c>
       <c r="N6">
-        <v>16.03054773439865</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.16538483923964</v>
+      </c>
+      <c r="P6">
+        <v>13.06137049991707</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.57581266286673</v>
+        <v>11.3752772772056</v>
       </c>
       <c r="C7">
-        <v>7.672291546453026</v>
+        <v>7.289340306529832</v>
       </c>
       <c r="D7">
-        <v>5.156564325754828</v>
+        <v>4.486372278702038</v>
       </c>
       <c r="E7">
-        <v>11.58979517049526</v>
+        <v>14.09294992866958</v>
       </c>
       <c r="F7">
-        <v>31.88240281681973</v>
+        <v>21.10462588931931</v>
       </c>
       <c r="G7">
-        <v>2.120988531899251</v>
+        <v>28.33483363380846</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.709545880907451</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.24317849363562</v>
       </c>
       <c r="K7">
-        <v>11.77982347368982</v>
+        <v>15.42340919956519</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.66993093457267</v>
+        <v>10.58672715578011</v>
       </c>
       <c r="N7">
-        <v>16.00932695313306</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.4221416599981</v>
+      </c>
+      <c r="P7">
+        <v>13.01263307394424</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.86163976005645</v>
+        <v>12.46144994683489</v>
       </c>
       <c r="C8">
-        <v>8.479272660683677</v>
+        <v>7.967185718816475</v>
       </c>
       <c r="D8">
-        <v>5.070326577065185</v>
+        <v>4.611925211114857</v>
       </c>
       <c r="E8">
-        <v>12.68685204182779</v>
+        <v>15.28842511178998</v>
       </c>
       <c r="F8">
-        <v>33.40764354370068</v>
+        <v>21.87652275618799</v>
       </c>
       <c r="G8">
-        <v>2.109475082529529</v>
+        <v>29.48131993052185</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.707983795140589</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.31946385439228</v>
       </c>
       <c r="K8">
-        <v>13.01200385657636</v>
+        <v>15.50982261338376</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.02686796713361</v>
+        <v>11.51004990571668</v>
       </c>
       <c r="N8">
-        <v>15.92765928702103</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.50194870985744</v>
+      </c>
+      <c r="P8">
+        <v>12.80240391524316</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.38324343133691</v>
+        <v>14.36011367072848</v>
       </c>
       <c r="C9">
-        <v>9.912144770959246</v>
+        <v>9.157980087243009</v>
       </c>
       <c r="D9">
-        <v>4.899437181509988</v>
+        <v>4.84154343201179</v>
       </c>
       <c r="E9">
-        <v>14.9040869626699</v>
+        <v>17.39923244682151</v>
       </c>
       <c r="F9">
-        <v>36.43414170039765</v>
+        <v>23.42791353845686</v>
       </c>
       <c r="G9">
-        <v>2.087871182815658</v>
+        <v>31.77470710291491</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.245102501342267</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.50848961577173</v>
       </c>
       <c r="K9">
-        <v>15.19418393779951</v>
+        <v>15.75030601736865</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.5338646400003</v>
+        <v>13.13607123346704</v>
       </c>
       <c r="N9">
-        <v>15.81485912391949</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.42194034306128</v>
+      </c>
+      <c r="P9">
+        <v>12.40680034267396</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.08127214086126</v>
+        <v>15.61162965138602</v>
       </c>
       <c r="C10">
-        <v>10.87895414980142</v>
+        <v>9.919427195988586</v>
       </c>
       <c r="D10">
-        <v>4.771162114928862</v>
+        <v>5.020040268054143</v>
       </c>
       <c r="E10">
-        <v>16.4101601942853</v>
+        <v>18.27484030984242</v>
       </c>
       <c r="F10">
-        <v>38.66989083587362</v>
+        <v>24.44265230776962</v>
       </c>
       <c r="G10">
-        <v>2.07245561344327</v>
+        <v>33.22510642080408</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.595403747872921</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.62512551735271</v>
       </c>
       <c r="K10">
-        <v>16.6619718841339</v>
+        <v>15.88820802829727</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.2274322775101</v>
+        <v>14.20530776089585</v>
       </c>
       <c r="N10">
-        <v>15.76540241946589</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.42561415096844</v>
+      </c>
+      <c r="P10">
+        <v>12.10537310823419</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.82199876015246</v>
+        <v>16.11532000134973</v>
       </c>
       <c r="C11">
-        <v>11.30141414220373</v>
+        <v>9.994835315320445</v>
       </c>
       <c r="D11">
-        <v>4.711802958009378</v>
+        <v>5.285405085539036</v>
       </c>
       <c r="E11">
-        <v>17.07089653012937</v>
+        <v>14.21686599302786</v>
       </c>
       <c r="F11">
-        <v>39.68874471623338</v>
+        <v>23.69928120728397</v>
       </c>
       <c r="G11">
-        <v>2.065507580251611</v>
+        <v>31.73174098713835</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.264004945091719</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.26761534248679</v>
       </c>
       <c r="K11">
-        <v>17.30205061585153</v>
+        <v>15.21750839118655</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.96791384965724</v>
+        <v>14.55969493408253</v>
       </c>
       <c r="N11">
-        <v>15.75129962990546</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.44082593644577</v>
+      </c>
+      <c r="P11">
+        <v>11.81296872356918</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.09810183092012</v>
+        <v>16.28746135001303</v>
       </c>
       <c r="C12">
-        <v>11.45901275511494</v>
+        <v>9.904904676232105</v>
       </c>
       <c r="D12">
-        <v>4.68914179535772</v>
+        <v>5.4833567577925</v>
       </c>
       <c r="E12">
-        <v>17.31780616859627</v>
+        <v>10.87432193872512</v>
       </c>
       <c r="F12">
-        <v>40.07482242712486</v>
+        <v>22.83691204737021</v>
       </c>
       <c r="G12">
-        <v>2.062882618290654</v>
+        <v>30.13221167221557</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.386403015148331</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.933691372131987</v>
       </c>
       <c r="K12">
-        <v>17.54061920211133</v>
+        <v>14.61198233327402</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.24421764245174</v>
+        <v>14.64265362575176</v>
       </c>
       <c r="N12">
-        <v>15.74727375625729</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.55124564000452</v>
+      </c>
+      <c r="P12">
+        <v>11.6531588128276</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.03883066829761</v>
+        <v>16.22082214275059</v>
       </c>
       <c r="C13">
-        <v>11.42517484484927</v>
+        <v>9.67978823634453</v>
       </c>
       <c r="D13">
-        <v>4.694031086068057</v>
+        <v>5.641262587430671</v>
       </c>
       <c r="E13">
-        <v>17.26477280185632</v>
+        <v>8.134583799188745</v>
       </c>
       <c r="F13">
-        <v>39.9916613815903</v>
+        <v>21.80919718373435</v>
       </c>
       <c r="G13">
-        <v>2.063447733713425</v>
+        <v>28.31351498175002</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.634553134127549</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.595374246490771</v>
       </c>
       <c r="K13">
-        <v>17.48940621287122</v>
+        <v>14.01669622226259</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.18488957863537</v>
+        <v>14.52461662211413</v>
       </c>
       <c r="N13">
-        <v>15.74808050387725</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.57404994305569</v>
+      </c>
+      <c r="P13">
+        <v>11.58468193236502</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.84480096854523</v>
+        <v>16.06569617160407</v>
       </c>
       <c r="C14">
-        <v>11.31442682016167</v>
+        <v>9.458587793090013</v>
       </c>
       <c r="D14">
-        <v>4.709942516542432</v>
+        <v>5.734698559425506</v>
       </c>
       <c r="E14">
-        <v>17.09127472554967</v>
+        <v>6.972638480781125</v>
       </c>
       <c r="F14">
-        <v>39.72050210549187</v>
+        <v>21.00649204133346</v>
       </c>
       <c r="G14">
-        <v>2.065291520153804</v>
+        <v>26.92566250840376</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.55037600502582</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.35712218297189</v>
       </c>
       <c r="K14">
-        <v>17.32175330847003</v>
+        <v>13.60691561887569</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.99072646774288</v>
+        <v>14.3500209276218</v>
       </c>
       <c r="N14">
-        <v>15.75094141796792</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.13732007347436</v>
+      </c>
+      <c r="P14">
+        <v>11.58053839646138</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.72538520225627</v>
+        <v>15.97602513154235</v>
       </c>
       <c r="C15">
-        <v>11.24628445525934</v>
+        <v>9.37455045084185</v>
       </c>
       <c r="D15">
-        <v>4.719663662492803</v>
+        <v>5.747535758058093</v>
       </c>
       <c r="E15">
-        <v>16.98457940888018</v>
+        <v>6.835566342256169</v>
       </c>
       <c r="F15">
-        <v>39.55444425054124</v>
+        <v>20.77695243000912</v>
       </c>
       <c r="G15">
-        <v>2.066421587432762</v>
+        <v>26.54244816986589</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.759499767585514</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.299445476055086</v>
       </c>
       <c r="K15">
-        <v>17.21856911267495</v>
+        <v>13.51137119183734</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.87126834994923</v>
+        <v>14.26357171742645</v>
       </c>
       <c r="N15">
-        <v>15.75286838239662</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.765691290713375</v>
+      </c>
+      <c r="P15">
+        <v>11.59544217183632</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03223955002817</v>
+        <v>15.47495831577299</v>
       </c>
       <c r="C16">
-        <v>10.85100604544736</v>
+        <v>9.090737539440987</v>
       </c>
       <c r="D16">
-        <v>4.775017937778989</v>
+        <v>5.641711626756723</v>
       </c>
       <c r="E16">
-        <v>16.36650624478374</v>
+        <v>6.753425069220766</v>
       </c>
       <c r="F16">
-        <v>38.60334111596504</v>
+        <v>20.50130141525987</v>
       </c>
       <c r="G16">
-        <v>2.072910719577311</v>
+        <v>26.19716751934574</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.488732734245192</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.313293159900249</v>
       </c>
       <c r="K16">
-        <v>16.61959844274754</v>
+        <v>13.56625848579113</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.17845470513269</v>
+        <v>13.84190700193632</v>
       </c>
       <c r="N16">
-        <v>15.7665019237971</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.611649547626538</v>
+      </c>
+      <c r="P16">
+        <v>11.7324381280379</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.59900699398358</v>
+        <v>15.16835204541249</v>
       </c>
       <c r="C17">
-        <v>10.60415209899951</v>
+        <v>8.991956559587159</v>
       </c>
       <c r="D17">
-        <v>4.808692239063818</v>
+        <v>5.508524016717104</v>
       </c>
       <c r="E17">
-        <v>15.98123507620549</v>
+        <v>7.130427348966434</v>
       </c>
       <c r="F17">
-        <v>38.02031087201004</v>
+        <v>20.73225354960307</v>
       </c>
       <c r="G17">
-        <v>2.076905980688292</v>
+        <v>26.69825159921053</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.744216955133306</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.452046627452546</v>
       </c>
       <c r="K17">
-        <v>16.24518111741827</v>
+        <v>13.82755700854372</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.74590834251894</v>
+        <v>13.60873394668928</v>
       </c>
       <c r="N17">
-        <v>15.77708877762949</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.283628887093</v>
+      </c>
+      <c r="P17">
+        <v>11.83956781682815</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.3468268901041</v>
+        <v>15.00215793252636</v>
       </c>
       <c r="C18">
-        <v>10.46052789257083</v>
+        <v>9.047184232467513</v>
       </c>
       <c r="D18">
-        <v>4.827968639609852</v>
+        <v>5.341332068189219</v>
       </c>
       <c r="E18">
-        <v>15.75732834371361</v>
+        <v>8.862059336811152</v>
       </c>
       <c r="F18">
-        <v>37.68513268050263</v>
+        <v>21.41705928016837</v>
       </c>
       <c r="G18">
-        <v>2.079210238457922</v>
+        <v>27.9722397968806</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.551839773924519</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.711690946981221</v>
       </c>
       <c r="K18">
-        <v>16.02721572588904</v>
+        <v>14.29423890218832</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.49428854157904</v>
+        <v>13.51821111389828</v>
       </c>
       <c r="N18">
-        <v>15.78396120437191</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.76890586547067</v>
+      </c>
+      <c r="P18">
+        <v>11.94539809638366</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.26092365835261</v>
+        <v>14.96513495541674</v>
       </c>
       <c r="C19">
-        <v>10.41161410571029</v>
+        <v>9.224005413480489</v>
       </c>
       <c r="D19">
-        <v>4.834480571310437</v>
+        <v>5.165867919426974</v>
       </c>
       <c r="E19">
-        <v>15.68111479066606</v>
+        <v>12.12996462554877</v>
       </c>
       <c r="F19">
-        <v>37.57167657203871</v>
+        <v>22.40314490954574</v>
       </c>
       <c r="G19">
-        <v>2.079991591954378</v>
+        <v>29.75300347024442</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.262159253425931</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.04904021519523</v>
       </c>
       <c r="K19">
-        <v>15.95296348883536</v>
+        <v>14.89462028614028</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.40860237964578</v>
+        <v>13.55235741010507</v>
       </c>
       <c r="N19">
-        <v>15.78641950726289</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.80052497957921</v>
+      </c>
+      <c r="P19">
+        <v>12.0592357798324</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.64543428513042</v>
+        <v>15.29208326939126</v>
       </c>
       <c r="C20">
-        <v>10.63059908455813</v>
+        <v>9.723457610708341</v>
       </c>
       <c r="D20">
-        <v>4.805117356193942</v>
+        <v>4.974809506362067</v>
       </c>
       <c r="E20">
-        <v>16.02248537180762</v>
+        <v>18.02538770052614</v>
       </c>
       <c r="F20">
-        <v>38.08235852726025</v>
+        <v>24.16872838495495</v>
       </c>
       <c r="G20">
-        <v>2.076480049323071</v>
+        <v>32.83126805905835</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.502440129463328</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.59058235000504</v>
       </c>
       <c r="K20">
-        <v>16.28530756043619</v>
+        <v>15.84486383536546</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.79224518659412</v>
+        <v>13.93146038124828</v>
       </c>
       <c r="N20">
-        <v>15.77587999436006</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.15525800427528</v>
+      </c>
+      <c r="P20">
+        <v>12.18297165765385</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.9019100275566</v>
+        <v>16.21583742554224</v>
       </c>
       <c r="C21">
-        <v>11.34701974515782</v>
+        <v>10.32832172051621</v>
       </c>
       <c r="D21">
-        <v>4.705274241965456</v>
+        <v>5.076259932266211</v>
       </c>
       <c r="E21">
-        <v>17.14232300647145</v>
+        <v>19.48253041785324</v>
       </c>
       <c r="F21">
-        <v>39.80014075895755</v>
+        <v>25.16646889453727</v>
       </c>
       <c r="G21">
-        <v>2.064749816769887</v>
+        <v>34.33395800022442</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.802104200128958</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.76274000440346</v>
       </c>
       <c r="K21">
-        <v>17.37109925062245</v>
+        <v>16.09945559548882</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.04786643892437</v>
+        <v>14.73645094760515</v>
       </c>
       <c r="N21">
-        <v>15.75006450968552</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.32685963571397</v>
+      </c>
+      <c r="P21">
+        <v>11.98583550794556</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.69756886260862</v>
+        <v>16.79272440314775</v>
       </c>
       <c r="C22">
-        <v>11.80144526906827</v>
+        <v>10.69338657227495</v>
       </c>
       <c r="D22">
-        <v>4.63893245863455</v>
+        <v>5.15093448202951</v>
       </c>
       <c r="E22">
-        <v>17.85509967702114</v>
+        <v>20.133505801185</v>
       </c>
       <c r="F22">
-        <v>40.92437559056707</v>
+        <v>25.74740632563016</v>
       </c>
       <c r="G22">
-        <v>2.057117283853327</v>
+        <v>35.18747614856199</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.981871491014948</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.85588450559253</v>
       </c>
       <c r="K22">
-        <v>18.05857235295381</v>
+        <v>16.23157062635394</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.84469698942052</v>
+        <v>15.23575159489207</v>
       </c>
       <c r="N22">
-        <v>15.74091307475549</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.92322791761339</v>
+      </c>
+      <c r="P22">
+        <v>11.84814197808306</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.27518593181319</v>
+        <v>16.487065798605</v>
       </c>
       <c r="C23">
-        <v>11.56013053435593</v>
+        <v>10.49988731398381</v>
       </c>
       <c r="D23">
-        <v>4.674453779789412</v>
+        <v>5.111277854183282</v>
       </c>
       <c r="E23">
-        <v>17.47634968513877</v>
+        <v>19.78841129992081</v>
       </c>
       <c r="F23">
-        <v>40.32418880463116</v>
+        <v>25.4373241774143</v>
       </c>
       <c r="G23">
-        <v>2.06118896062112</v>
+        <v>34.73198266900115</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.886228084094555</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.80569801114326</v>
       </c>
       <c r="K23">
-        <v>17.69362620796245</v>
+        <v>16.16016431796566</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.42151740975278</v>
+        <v>14.97110538880305</v>
       </c>
       <c r="N23">
-        <v>15.74505243432543</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.60703529402088</v>
+      </c>
+      <c r="P23">
+        <v>11.9214978941872</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62445420280447</v>
+        <v>15.2800417386778</v>
       </c>
       <c r="C24">
-        <v>10.61864772044533</v>
+        <v>9.737378790574622</v>
       </c>
       <c r="D24">
-        <v>4.806733817675418</v>
+        <v>4.956775242790282</v>
       </c>
       <c r="E24">
-        <v>16.0038436328296</v>
+        <v>18.42979260258305</v>
       </c>
       <c r="F24">
-        <v>38.05430673894043</v>
+        <v>24.26406522390904</v>
       </c>
       <c r="G24">
-        <v>2.076672589829461</v>
+        <v>33.00664928974471</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.517199498629216</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.62588848102752</v>
       </c>
       <c r="K24">
-        <v>16.26717484168755</v>
+        <v>15.90903435972409</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.77130548170126</v>
+        <v>13.92824099767706</v>
       </c>
       <c r="N24">
-        <v>15.77642404534106</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.36340921309852</v>
+      </c>
+      <c r="P24">
+        <v>12.20232840137532</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72879503158903</v>
+        <v>13.87105223202773</v>
       </c>
       <c r="C25">
-        <v>9.540011173869052</v>
+        <v>8.850585852084917</v>
       </c>
       <c r="D25">
-        <v>4.946017026700657</v>
+        <v>4.78127856994721</v>
       </c>
       <c r="E25">
-        <v>14.3265655946275</v>
+        <v>16.85329507014377</v>
       </c>
       <c r="F25">
-        <v>35.61275627119485</v>
+        <v>23.0051023892529</v>
       </c>
       <c r="G25">
-        <v>2.09362469570493</v>
+        <v>31.15080082294595</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.103624759535268</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.45296347305243</v>
       </c>
       <c r="K25">
-        <v>14.62819210841554</v>
+        <v>15.67725234038024</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.88240720208718</v>
+        <v>12.7159912595236</v>
       </c>
       <c r="N25">
-        <v>15.83986229049235</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>15.92410718256054</v>
+      </c>
+      <c r="P25">
+        <v>12.51211189300753</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.74003100523752</v>
+        <v>12.37773792302224</v>
       </c>
       <c r="C2">
-        <v>8.141455370569513</v>
+        <v>8.66948408697152</v>
       </c>
       <c r="D2">
-        <v>4.644849565975627</v>
+        <v>4.727256163370843</v>
       </c>
       <c r="E2">
-        <v>15.59658231362668</v>
+        <v>15.62871910473197</v>
       </c>
       <c r="F2">
-        <v>22.08855709005444</v>
+        <v>21.23804095731492</v>
       </c>
       <c r="G2">
-        <v>29.7955132839699</v>
+        <v>27.75686403373427</v>
       </c>
       <c r="H2">
-        <v>1.784760506314765</v>
+        <v>1.789666503862424</v>
       </c>
       <c r="J2">
-        <v>10.34274012476325</v>
+        <v>10.45490023675692</v>
       </c>
       <c r="K2">
-        <v>15.53789990166934</v>
+        <v>14.76436774406958</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.87353073070334</v>
       </c>
       <c r="M2">
-        <v>11.74775389861792</v>
+        <v>9.091519401796573</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.78133132951408</v>
+        <v>11.68591286526758</v>
       </c>
       <c r="P2">
-        <v>12.74659568515562</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.75865225671904</v>
+      </c>
+      <c r="R2">
+        <v>12.57229931562872</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.91448330208423</v>
+        <v>11.62730417570201</v>
       </c>
       <c r="C3">
-        <v>7.625508259212871</v>
+        <v>8.055772271914998</v>
       </c>
       <c r="D3">
-        <v>4.548122618339064</v>
+        <v>4.60027906540216</v>
       </c>
       <c r="E3">
-        <v>14.68516086811426</v>
+        <v>14.73491482786671</v>
       </c>
       <c r="F3">
-        <v>21.47670899188466</v>
+        <v>20.71425254865674</v>
       </c>
       <c r="G3">
-        <v>28.88805584971526</v>
+        <v>27.02814977982305</v>
       </c>
       <c r="H3">
-        <v>1.561919659611381</v>
+        <v>1.576572036756208</v>
       </c>
       <c r="J3">
-        <v>10.27818128309328</v>
+        <v>10.37937235451666</v>
       </c>
       <c r="K3">
-        <v>15.46175565278837</v>
+        <v>14.74706503462884</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.97669590004397</v>
       </c>
       <c r="M3">
-        <v>11.04435964407423</v>
+        <v>8.943803649535916</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.95618130241269</v>
+        <v>11.00167075600537</v>
       </c>
       <c r="P3">
-        <v>12.90973507308708</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.94243327651831</v>
+      </c>
+      <c r="R3">
+        <v>12.73217468510668</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.37829375780473</v>
+        <v>11.13998815795308</v>
       </c>
       <c r="C4">
-        <v>7.291219018390869</v>
+        <v>7.657308129955859</v>
       </c>
       <c r="D4">
-        <v>4.486714436382346</v>
+        <v>4.519817236483404</v>
       </c>
       <c r="E4">
-        <v>14.09625557654412</v>
+        <v>14.15771285082777</v>
       </c>
       <c r="F4">
-        <v>21.10664505526099</v>
+        <v>20.39720092730519</v>
       </c>
       <c r="G4">
-        <v>28.33783901013502</v>
+        <v>26.59112302730956</v>
       </c>
       <c r="H4">
-        <v>1.708727227586867</v>
+        <v>1.682979259526115</v>
       </c>
       <c r="J4">
-        <v>10.24335866971467</v>
+        <v>10.33484492740553</v>
       </c>
       <c r="K4">
-        <v>15.42359902789255</v>
+        <v>14.74277283902378</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.04170612753608</v>
       </c>
       <c r="M4">
-        <v>10.58928296911972</v>
+        <v>8.877898924093328</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.42511730685517</v>
+        <v>10.55894606438855</v>
       </c>
       <c r="P4">
-        <v>13.01206546893343</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.41704033601157</v>
+      </c>
+      <c r="R4">
+        <v>12.83224987739602</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.15240528047789</v>
+        <v>10.93472879090556</v>
       </c>
       <c r="C5">
-        <v>7.150593774941505</v>
+        <v>7.489471142260881</v>
       </c>
       <c r="D5">
-        <v>4.461197283808511</v>
+        <v>4.486426262869006</v>
       </c>
       <c r="E5">
-        <v>13.84895322980564</v>
+        <v>13.91542285799514</v>
       </c>
       <c r="F5">
-        <v>20.95741402516041</v>
+        <v>20.26925350020335</v>
       </c>
       <c r="G5">
-        <v>28.11561648877666</v>
+        <v>26.41576446748465</v>
       </c>
       <c r="H5">
-        <v>1.769808774625694</v>
+        <v>1.740759973870691</v>
       </c>
       <c r="J5">
-        <v>10.23035108938655</v>
+        <v>10.31715797053234</v>
       </c>
       <c r="K5">
-        <v>15.4101463829995</v>
+        <v>14.74255495643904</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.06861976252888</v>
       </c>
       <c r="M5">
-        <v>10.39803356657501</v>
+        <v>8.857337521424158</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.20268023060437</v>
+        <v>10.37288906133181</v>
       </c>
       <c r="P5">
-        <v>13.05432032139439</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.1969663815434</v>
+      </c>
+      <c r="R5">
+        <v>12.87352560660607</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11445007992014</v>
+        <v>10.90024272426368</v>
       </c>
       <c r="C6">
-        <v>7.126977464474858</v>
+        <v>7.461271774201612</v>
       </c>
       <c r="D6">
-        <v>4.456930857544342</v>
+        <v>4.480846148448753</v>
       </c>
       <c r="E6">
-        <v>13.80744856440757</v>
+        <v>13.87476581531247</v>
       </c>
       <c r="F6">
-        <v>20.93273408897193</v>
+        <v>20.24808679258554</v>
       </c>
       <c r="G6">
-        <v>28.07884436010923</v>
+        <v>26.38681468977204</v>
       </c>
       <c r="H6">
-        <v>1.780027792869135</v>
+        <v>1.750428055252385</v>
       </c>
       <c r="J6">
-        <v>10.22826178433233</v>
+        <v>10.31424856131217</v>
       </c>
       <c r="K6">
-        <v>15.40803726511745</v>
+        <v>14.74260948710512</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.07311427839303</v>
       </c>
       <c r="M6">
-        <v>10.36592746185718</v>
+        <v>8.85430420991217</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.16538483923964</v>
+        <v>10.34165504729073</v>
       </c>
       <c r="P6">
-        <v>13.06137049991707</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.16006667918863</v>
+      </c>
+      <c r="R6">
+        <v>12.88040965453268</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3752772772056</v>
+        <v>11.13334722254226</v>
       </c>
       <c r="C7">
-        <v>7.289340306529832</v>
+        <v>7.644338640732583</v>
       </c>
       <c r="D7">
-        <v>4.486372278702038</v>
+        <v>4.522091465102093</v>
       </c>
       <c r="E7">
-        <v>14.09294992866958</v>
+        <v>14.15623237174927</v>
       </c>
       <c r="F7">
-        <v>21.10462588931931</v>
+        <v>20.37566661452882</v>
       </c>
       <c r="G7">
-        <v>28.33483363380846</v>
+        <v>26.66873287091069</v>
       </c>
       <c r="H7">
-        <v>1.709545880907451</v>
+        <v>1.684244541934679</v>
       </c>
       <c r="J7">
-        <v>10.24317849363562</v>
+        <v>10.28860612206829</v>
       </c>
       <c r="K7">
-        <v>15.42340919956519</v>
+        <v>14.73303394645058</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.03385670165818</v>
       </c>
       <c r="M7">
-        <v>10.58672715578011</v>
+        <v>8.870982074763798</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.4221416599981</v>
+        <v>10.550726618856</v>
       </c>
       <c r="P7">
-        <v>13.01263307394424</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.41130583690968</v>
+      </c>
+      <c r="R7">
+        <v>12.83080909281516</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46144994683489</v>
+        <v>12.11249997484524</v>
       </c>
       <c r="C8">
-        <v>7.967185718816475</v>
+        <v>8.429489551606691</v>
       </c>
       <c r="D8">
-        <v>4.611925211114857</v>
+        <v>4.693016997454484</v>
       </c>
       <c r="E8">
-        <v>15.28842511178998</v>
+        <v>15.33201504763858</v>
       </c>
       <c r="F8">
-        <v>21.87652275618799</v>
+        <v>20.99293182158594</v>
       </c>
       <c r="G8">
-        <v>29.48131993052185</v>
+        <v>27.76141203001047</v>
       </c>
       <c r="H8">
-        <v>1.707983795140589</v>
+        <v>1.71565549483198</v>
       </c>
       <c r="J8">
-        <v>10.31946385439228</v>
+        <v>10.27857185030787</v>
       </c>
       <c r="K8">
-        <v>15.50982261338376</v>
+        <v>14.72518000668884</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.88351108625879</v>
       </c>
       <c r="M8">
-        <v>11.51004990571668</v>
+        <v>9.011659612689558</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.50194870985744</v>
+        <v>11.43695248392026</v>
       </c>
       <c r="P8">
-        <v>12.80240391524316</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.47366326810656</v>
+      </c>
+      <c r="R8">
+        <v>12.62078440018908</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.36011367072848</v>
+        <v>13.83661655156431</v>
       </c>
       <c r="C9">
-        <v>9.157980087243009</v>
+        <v>9.837786525368021</v>
       </c>
       <c r="D9">
-        <v>4.84154343201179</v>
+        <v>4.997277869696772</v>
       </c>
       <c r="E9">
-        <v>17.39923244682151</v>
+        <v>17.40390063978015</v>
       </c>
       <c r="F9">
-        <v>23.42791353845686</v>
+        <v>22.30822022130521</v>
       </c>
       <c r="G9">
-        <v>31.77470710291491</v>
+        <v>29.6837201407982</v>
       </c>
       <c r="H9">
-        <v>2.245102501342267</v>
+        <v>2.222318201866603</v>
       </c>
       <c r="J9">
-        <v>10.50848961577173</v>
+        <v>10.43999019593009</v>
       </c>
       <c r="K9">
-        <v>15.75030601736865</v>
+        <v>14.79832417536201</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.63178203359021</v>
       </c>
       <c r="M9">
-        <v>13.13607123346704</v>
+        <v>9.503766186403473</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.42194034306128</v>
+        <v>13.0155762606588</v>
       </c>
       <c r="P9">
-        <v>12.40680034267396</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.37095692495931</v>
+      </c>
+      <c r="R9">
+        <v>12.23067126294468</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.61162965138602</v>
+        <v>14.96045545243862</v>
       </c>
       <c r="C10">
-        <v>9.919427195988586</v>
+        <v>10.68361048395034</v>
       </c>
       <c r="D10">
-        <v>5.020040268054143</v>
+        <v>5.242680313850319</v>
       </c>
       <c r="E10">
-        <v>18.27484030984242</v>
+        <v>18.26104736395506</v>
       </c>
       <c r="F10">
-        <v>24.44265230776962</v>
+        <v>23.0612090985754</v>
       </c>
       <c r="G10">
-        <v>33.22510642080408</v>
+        <v>31.31425371432633</v>
       </c>
       <c r="H10">
-        <v>2.595403747872921</v>
+        <v>2.549281209145914</v>
       </c>
       <c r="J10">
-        <v>10.62512551735271</v>
+        <v>10.27827990113601</v>
       </c>
       <c r="K10">
-        <v>15.88820802829727</v>
+        <v>14.76256184681329</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.36820698283409</v>
       </c>
       <c r="M10">
-        <v>14.20530776089585</v>
+        <v>9.865699486892666</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.42561415096844</v>
+        <v>14.02732359122989</v>
       </c>
       <c r="P10">
-        <v>12.10537310823419</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.3465457140881</v>
+      </c>
+      <c r="R10">
+        <v>11.92903482996318</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.11532000134973</v>
+        <v>15.43179907494802</v>
       </c>
       <c r="C11">
-        <v>9.994835315320445</v>
+        <v>10.63567308433093</v>
       </c>
       <c r="D11">
-        <v>5.285405085539036</v>
+        <v>5.564068653453461</v>
       </c>
       <c r="E11">
-        <v>14.21686599302786</v>
+        <v>14.19042742395542</v>
       </c>
       <c r="F11">
-        <v>23.69928120728397</v>
+        <v>22.14201873692101</v>
       </c>
       <c r="G11">
-        <v>31.73174098713835</v>
+        <v>30.78457694250891</v>
       </c>
       <c r="H11">
-        <v>3.264004945091719</v>
+        <v>3.22148721838861</v>
       </c>
       <c r="J11">
-        <v>10.26761534248679</v>
+        <v>9.471541374694658</v>
       </c>
       <c r="K11">
-        <v>15.21750839118655</v>
+        <v>14.04618640657177</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.77849840183668</v>
       </c>
       <c r="M11">
-        <v>14.55969493408253</v>
+        <v>9.437422739545985</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.44082593644577</v>
+        <v>14.32267647758023</v>
       </c>
       <c r="P11">
-        <v>11.81296872356918</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.33550399660115</v>
+      </c>
+      <c r="R11">
+        <v>11.68769877009222</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.28746135001303</v>
+        <v>15.61321444126808</v>
       </c>
       <c r="C12">
-        <v>9.904904676232105</v>
+        <v>10.45311729969767</v>
       </c>
       <c r="D12">
-        <v>5.4833567577925</v>
+        <v>5.785224303713558</v>
       </c>
       <c r="E12">
-        <v>10.87432193872512</v>
+        <v>10.81814794480225</v>
       </c>
       <c r="F12">
-        <v>22.83691204737021</v>
+        <v>21.25019516209803</v>
       </c>
       <c r="G12">
-        <v>30.13221167221557</v>
+        <v>29.71042620610413</v>
       </c>
       <c r="H12">
-        <v>4.386403015148331</v>
+        <v>4.354943049362126</v>
       </c>
       <c r="J12">
-        <v>9.933691372131987</v>
+        <v>8.999692125202484</v>
       </c>
       <c r="K12">
-        <v>14.61198233327402</v>
+        <v>13.47933945710662</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.37115353813929</v>
       </c>
       <c r="M12">
-        <v>14.64265362575176</v>
+        <v>9.010267525697813</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.55124564000452</v>
+        <v>14.38308795682023</v>
       </c>
       <c r="P12">
-        <v>11.6531588128276</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.43776651556736</v>
+      </c>
+      <c r="R12">
+        <v>11.58078521562696</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22082214275059</v>
+        <v>15.59628995750493</v>
       </c>
       <c r="C13">
-        <v>9.67978823634453</v>
+        <v>10.17023635481841</v>
       </c>
       <c r="D13">
-        <v>5.641262587430671</v>
+        <v>5.933169847270678</v>
       </c>
       <c r="E13">
-        <v>8.134583799188745</v>
+        <v>8.027901013546943</v>
       </c>
       <c r="F13">
-        <v>21.80919718373435</v>
+        <v>20.34819974412022</v>
       </c>
       <c r="G13">
-        <v>28.31351498175002</v>
+        <v>27.93649582740976</v>
       </c>
       <c r="H13">
-        <v>5.634553134127549</v>
+        <v>5.612897486704242</v>
       </c>
       <c r="J13">
-        <v>9.595374246490771</v>
+        <v>8.807992777100283</v>
       </c>
       <c r="K13">
-        <v>14.01669622226259</v>
+        <v>13.00958497991674</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.07794642901611</v>
       </c>
       <c r="M13">
-        <v>14.52461662211413</v>
+        <v>8.575269703235616</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.57404994305569</v>
+        <v>14.27991000366105</v>
       </c>
       <c r="P13">
-        <v>11.58468193236502</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.47072288898364</v>
+      </c>
+      <c r="R13">
+        <v>11.56186154739536</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.06569617160407</v>
+        <v>15.49458161146496</v>
       </c>
       <c r="C14">
-        <v>9.458587793090013</v>
+        <v>9.922427761461391</v>
       </c>
       <c r="D14">
-        <v>5.734698559425506</v>
+        <v>6.003914790810868</v>
       </c>
       <c r="E14">
-        <v>6.972638480781125</v>
+        <v>6.830455856692286</v>
       </c>
       <c r="F14">
-        <v>21.00649204133346</v>
+        <v>19.70211855126966</v>
       </c>
       <c r="G14">
-        <v>26.92566250840376</v>
+        <v>26.37187699213032</v>
       </c>
       <c r="H14">
-        <v>6.55037600502582</v>
+        <v>6.534284293519301</v>
       </c>
       <c r="J14">
-        <v>9.35712218297189</v>
+        <v>8.781409353506753</v>
       </c>
       <c r="K14">
-        <v>13.60691561887569</v>
+        <v>12.72280301586428</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.91849661721249</v>
       </c>
       <c r="M14">
-        <v>14.3500209276218</v>
+        <v>8.267985523116765</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.13732007347436</v>
+        <v>14.1323316907611</v>
       </c>
       <c r="P14">
-        <v>11.58053839646138</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.04911741718412</v>
+      </c>
+      <c r="R14">
+        <v>11.58582611981597</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.97602513154235</v>
+        <v>15.42626309382518</v>
       </c>
       <c r="C15">
-        <v>9.37455045084185</v>
+        <v>9.837556623713569</v>
       </c>
       <c r="D15">
-        <v>5.747535758058093</v>
+        <v>6.004601510754166</v>
       </c>
       <c r="E15">
-        <v>6.835566342256169</v>
+        <v>6.691066164809466</v>
       </c>
       <c r="F15">
-        <v>20.77695243000912</v>
+        <v>19.53998596100036</v>
       </c>
       <c r="G15">
-        <v>26.54244816986589</v>
+        <v>25.85797793679269</v>
       </c>
       <c r="H15">
-        <v>6.759499767585514</v>
+        <v>6.744974879003615</v>
       </c>
       <c r="J15">
-        <v>9.299445476055086</v>
+        <v>8.820942144011577</v>
       </c>
       <c r="K15">
-        <v>13.51137119183734</v>
+        <v>12.67157229043382</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.89898102472766</v>
       </c>
       <c r="M15">
-        <v>14.26357171742645</v>
+        <v>8.192710407717071</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.765691290713375</v>
+        <v>14.05976671103648</v>
       </c>
       <c r="P15">
-        <v>11.59544217183632</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.684523525285169</v>
+      </c>
+      <c r="R15">
+        <v>11.60495189250348</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.47495831577299</v>
+        <v>14.99831504738346</v>
       </c>
       <c r="C16">
-        <v>9.090737539440987</v>
+        <v>9.597008069338724</v>
       </c>
       <c r="D16">
-        <v>5.641711626756723</v>
+        <v>5.843528525547176</v>
       </c>
       <c r="E16">
-        <v>6.753425069220766</v>
+        <v>6.645042063044908</v>
       </c>
       <c r="F16">
-        <v>20.50130141525987</v>
+        <v>19.50840854616096</v>
       </c>
       <c r="G16">
-        <v>26.19716751934574</v>
+        <v>24.80151390737041</v>
       </c>
       <c r="H16">
-        <v>6.488732734245192</v>
+        <v>6.478343186366799</v>
       </c>
       <c r="J16">
-        <v>9.313293159900249</v>
+        <v>9.229676470836589</v>
       </c>
       <c r="K16">
-        <v>13.56625848579113</v>
+        <v>12.84682043459129</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.0839092327649</v>
       </c>
       <c r="M16">
-        <v>13.84190700193632</v>
+        <v>8.191386195508226</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.611649547626538</v>
+        <v>13.70014517482524</v>
       </c>
       <c r="P16">
-        <v>11.7324381280379</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.558425223342999</v>
+      </c>
+      <c r="R16">
+        <v>11.72368883599874</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.16835204541249</v>
+        <v>14.71420475205683</v>
       </c>
       <c r="C17">
-        <v>8.991956559587159</v>
+        <v>9.534686203162646</v>
       </c>
       <c r="D17">
-        <v>5.508524016717104</v>
+        <v>5.686169201662009</v>
       </c>
       <c r="E17">
-        <v>7.130427348966434</v>
+        <v>7.053053249135603</v>
       </c>
       <c r="F17">
-        <v>20.73225354960307</v>
+        <v>19.81578868200751</v>
       </c>
       <c r="G17">
-        <v>26.69825159921053</v>
+        <v>24.95949392847155</v>
       </c>
       <c r="H17">
-        <v>5.744216955133306</v>
+        <v>5.734865104036876</v>
       </c>
       <c r="J17">
-        <v>9.452046627452546</v>
+        <v>9.523112389885096</v>
       </c>
       <c r="K17">
-        <v>13.82755700854372</v>
+        <v>13.12535926685958</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.31321427262338</v>
       </c>
       <c r="M17">
-        <v>13.60873394668928</v>
+        <v>8.344060396566217</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.283628887093</v>
+        <v>13.49319876286271</v>
       </c>
       <c r="P17">
-        <v>11.83956781682815</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.24107100534222</v>
+      </c>
+      <c r="R17">
+        <v>11.80754565620632</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.00215793252636</v>
+        <v>14.53497581838729</v>
       </c>
       <c r="C18">
-        <v>9.047184232467513</v>
+        <v>9.642313991270985</v>
       </c>
       <c r="D18">
-        <v>5.341332068189219</v>
+        <v>5.511174188129338</v>
       </c>
       <c r="E18">
-        <v>8.862059336811152</v>
+        <v>8.81471400701321</v>
       </c>
       <c r="F18">
-        <v>21.41705928016837</v>
+        <v>20.48031186400489</v>
       </c>
       <c r="G18">
-        <v>27.9722397968806</v>
+        <v>26.00773590299023</v>
       </c>
       <c r="H18">
-        <v>4.551839773924519</v>
+        <v>4.54066377821076</v>
       </c>
       <c r="J18">
-        <v>9.711690946981221</v>
+        <v>9.822134543337839</v>
       </c>
       <c r="K18">
-        <v>14.29423890218832</v>
+        <v>13.5437131305396</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.62454225041074</v>
       </c>
       <c r="M18">
-        <v>13.51821111389828</v>
+        <v>8.653769496959525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.76890586547067</v>
+        <v>13.41010676172946</v>
       </c>
       <c r="P18">
-        <v>11.94539809638366</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.72798811874187</v>
+      </c>
+      <c r="R18">
+        <v>11.88175702685331</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.96513495541674</v>
+        <v>14.46006283653508</v>
       </c>
       <c r="C19">
-        <v>9.224005413480489</v>
+        <v>9.887222569017972</v>
       </c>
       <c r="D19">
-        <v>5.165867919426974</v>
+        <v>5.337238352599634</v>
       </c>
       <c r="E19">
-        <v>12.12996462554877</v>
+        <v>12.10322454896246</v>
       </c>
       <c r="F19">
-        <v>22.40314490954574</v>
+        <v>21.38682141040381</v>
       </c>
       <c r="G19">
-        <v>29.75300347024442</v>
+        <v>27.60860890349657</v>
       </c>
       <c r="H19">
-        <v>3.262159253425931</v>
+        <v>3.244463445100452</v>
       </c>
       <c r="J19">
-        <v>10.04904021519523</v>
+        <v>10.13570023538177</v>
       </c>
       <c r="K19">
-        <v>14.89462028614028</v>
+        <v>14.05423851644479</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.98788731955497</v>
       </c>
       <c r="M19">
-        <v>13.55235741010507</v>
+        <v>9.07141650385376</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.80052497957921</v>
+        <v>13.43990163522429</v>
       </c>
       <c r="P19">
-        <v>12.0592357798324</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.75574796324773</v>
+      </c>
+      <c r="R19">
+        <v>11.95629313641125</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.29208326939126</v>
+        <v>14.68474845298709</v>
       </c>
       <c r="C20">
-        <v>9.723457610708341</v>
+        <v>10.49527336982728</v>
       </c>
       <c r="D20">
-        <v>4.974809506362067</v>
+        <v>5.170608536241367</v>
       </c>
       <c r="E20">
-        <v>18.02538770052614</v>
+        <v>18.01116033447469</v>
       </c>
       <c r="F20">
-        <v>24.16872838495495</v>
+        <v>22.9187308792677</v>
       </c>
       <c r="G20">
-        <v>32.83126805905835</v>
+        <v>30.62018897824949</v>
       </c>
       <c r="H20">
-        <v>2.502440129463328</v>
+        <v>2.463773181713387</v>
       </c>
       <c r="J20">
-        <v>10.59058235000504</v>
+        <v>10.47129821060348</v>
       </c>
       <c r="K20">
-        <v>15.84486383536546</v>
+        <v>14.7993298969753</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.45683313654244</v>
       </c>
       <c r="M20">
-        <v>13.93146038124828</v>
+        <v>9.78993703785904</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.15525800427528</v>
+        <v>13.78455912734447</v>
       </c>
       <c r="P20">
-        <v>12.18297165765385</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.09142681821899</v>
+      </c>
+      <c r="R20">
+        <v>12.01275371921356</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.21583742554224</v>
+        <v>15.4497054585669</v>
       </c>
       <c r="C21">
-        <v>10.32832172051621</v>
+        <v>11.02573230464872</v>
       </c>
       <c r="D21">
-        <v>5.076259932266211</v>
+        <v>5.372285217630123</v>
       </c>
       <c r="E21">
-        <v>19.48253041785324</v>
+        <v>19.48385830442409</v>
       </c>
       <c r="F21">
-        <v>25.16646889453727</v>
+        <v>23.37284022117039</v>
       </c>
       <c r="G21">
-        <v>34.33395800022442</v>
+        <v>33.55038756482327</v>
       </c>
       <c r="H21">
-        <v>2.802104200128958</v>
+        <v>2.737840497946972</v>
       </c>
       <c r="J21">
-        <v>10.76274000440346</v>
+        <v>9.638887132388835</v>
       </c>
       <c r="K21">
-        <v>16.09945559548882</v>
+        <v>14.71990048023444</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.21778973355831</v>
       </c>
       <c r="M21">
-        <v>14.73645094760515</v>
+        <v>10.04084739632207</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.32685963571397</v>
+        <v>14.46224403877889</v>
       </c>
       <c r="P21">
-        <v>11.98583550794556</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.19997602655842</v>
+      </c>
+      <c r="R21">
+        <v>11.77394261873811</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.79272440314775</v>
+        <v>15.92629829172916</v>
       </c>
       <c r="C22">
-        <v>10.69338657227495</v>
+        <v>11.33007164532404</v>
       </c>
       <c r="D22">
-        <v>5.15093448202951</v>
+        <v>5.51583429006923</v>
       </c>
       <c r="E22">
-        <v>20.133505801185</v>
+        <v>20.14680104546284</v>
       </c>
       <c r="F22">
-        <v>25.74740632563016</v>
+        <v>23.5871772428737</v>
       </c>
       <c r="G22">
-        <v>35.18747614856199</v>
+        <v>35.42860873945237</v>
       </c>
       <c r="H22">
-        <v>2.981871491014948</v>
+        <v>2.901377792184868</v>
       </c>
       <c r="J22">
-        <v>10.85588450559253</v>
+        <v>9.064199473089477</v>
       </c>
       <c r="K22">
-        <v>16.23157062635394</v>
+        <v>14.6245084069838</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.0329466880872</v>
       </c>
       <c r="M22">
-        <v>15.23575159489207</v>
+        <v>10.17549967403731</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.92322791761339</v>
+        <v>14.8767015442117</v>
       </c>
       <c r="P22">
-        <v>11.84814197808306</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.75407704306592</v>
+      </c>
+      <c r="R22">
+        <v>11.61088074591719</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.487065798605</v>
+        <v>15.68133918293604</v>
       </c>
       <c r="C23">
-        <v>10.49988731398381</v>
+        <v>11.18914315250101</v>
       </c>
       <c r="D23">
-        <v>5.111277854183282</v>
+        <v>5.432425560277451</v>
       </c>
       <c r="E23">
-        <v>19.78841129992081</v>
+        <v>19.79135413817501</v>
       </c>
       <c r="F23">
-        <v>25.4373241774143</v>
+        <v>23.51733506425633</v>
       </c>
       <c r="G23">
-        <v>34.73198266900115</v>
+        <v>34.24359999174528</v>
       </c>
       <c r="H23">
-        <v>2.886228084094555</v>
+        <v>2.815205844961206</v>
       </c>
       <c r="J23">
-        <v>10.80569801114326</v>
+        <v>9.466457625564264</v>
       </c>
       <c r="K23">
-        <v>16.16016431796566</v>
+        <v>14.69940998265919</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.14725110520186</v>
       </c>
       <c r="M23">
-        <v>14.97110538880305</v>
+        <v>10.12359563984195</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.60703529402088</v>
+        <v>14.6683088644305</v>
       </c>
       <c r="P23">
-        <v>11.9214978941872</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.46590238671426</v>
+      </c>
+      <c r="R23">
+        <v>11.70183851682195</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.2800417386778</v>
+        <v>14.66985375560398</v>
       </c>
       <c r="C24">
-        <v>9.737378790574622</v>
+        <v>10.51650020041155</v>
       </c>
       <c r="D24">
-        <v>4.956775242790282</v>
+        <v>5.151533096828185</v>
       </c>
       <c r="E24">
-        <v>18.42979260258305</v>
+        <v>18.41634761780343</v>
       </c>
       <c r="F24">
-        <v>24.26406522390904</v>
+        <v>23.0093839450431</v>
       </c>
       <c r="G24">
-        <v>33.00664928974471</v>
+        <v>30.76804986597602</v>
       </c>
       <c r="H24">
-        <v>2.517199498629216</v>
+        <v>2.478351516216831</v>
       </c>
       <c r="J24">
-        <v>10.62588848102752</v>
+        <v>10.510444935004</v>
       </c>
       <c r="K24">
-        <v>15.90903435972409</v>
+        <v>14.8560923654711</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.49961679265303</v>
       </c>
       <c r="M24">
-        <v>13.92824099767706</v>
+        <v>9.832671085205668</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.36340921309852</v>
+        <v>13.78165654149131</v>
       </c>
       <c r="P24">
-        <v>12.20232840137532</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.29955970165078</v>
+      </c>
+      <c r="R24">
+        <v>12.02725369128631</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.87105223202773</v>
+        <v>13.39732452123775</v>
       </c>
       <c r="C25">
-        <v>8.850585852084917</v>
+        <v>9.487706915953531</v>
       </c>
       <c r="D25">
-        <v>4.78127856994721</v>
+        <v>4.913532848068799</v>
       </c>
       <c r="E25">
-        <v>16.85329507014377</v>
+        <v>16.86571193018999</v>
       </c>
       <c r="F25">
-        <v>23.0051023892529</v>
+        <v>21.97559960999236</v>
       </c>
       <c r="G25">
-        <v>31.15080082294595</v>
+        <v>29.05087220891398</v>
       </c>
       <c r="H25">
-        <v>2.103624759535268</v>
+        <v>2.089562343420158</v>
       </c>
       <c r="J25">
-        <v>10.45296347305243</v>
+        <v>10.45753562270781</v>
       </c>
       <c r="K25">
-        <v>15.67725234038024</v>
+        <v>14.78589988894038</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.70839802967569</v>
       </c>
       <c r="M25">
-        <v>12.7159912595236</v>
+        <v>9.361841247793548</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.92410718256054</v>
+        <v>12.61488807163286</v>
       </c>
       <c r="P25">
-        <v>12.51211189300753</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.88256644659526</v>
+      </c>
+      <c r="R25">
+        <v>12.3372695615685</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
